--- a/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="156">
   <si>
     <t>活动名称</t>
   </si>
@@ -259,64 +259,14 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>date,date</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>测试时间结构体.比如说活动开启结束时间</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>0,4,</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>0,</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>20:0:0,20:0:2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:0,0:3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:5</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:6</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:7</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:8</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:9</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:10</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:11</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:12</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:13</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:14</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:15</t>
-  </si>
-  <si>
     <t>测试时间数组</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -371,92 +321,236 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>dateArray</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:00</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动id</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>#显示等级下限,不到等级（不包括自身）不显示</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndTimeDate</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>action:Say(12,"动态礼包")</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>action:Mail(12)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>action:TrigerTask(13)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;(VIP_LEVEL&lt;Description || testdate ==dateTest)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;VIP_LEVEL&gt;EndTimeDate</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;(VIP_LEVEL&lt;(Description + startTimeDate) || testdate ==datetest) &amp;&amp; (pow(doubleTest , double2test) &gt; double3test)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsShowInterface</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardIcon</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;VIP_LEVEL&gt;EndTimeDate || TEST_MULIT_ARGS(IsShowInterface , Description,int64Test,doubleTest,RewardIcon,dateTest)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套表使用</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfig</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>testConfig</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>testConfig2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>date,date,ActionConfig</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateCommon</t>
+  </si>
+  <si>
+    <t>config公用值</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>map&lt;string , ActionConfig&gt;</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTest=1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>date2Test=2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>date3Test=3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:0:0,20:0:2,3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:0,0:3,3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,4,3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,4</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,5</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,6</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,7</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,8</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,9</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,10</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,11</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,12</t>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,13</t>
+  </si>
+  <si>
     <t>testDateStruct
-[begin,end]</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateArray</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:00</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动id</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>#显示等级下限,不到等级（不包括自身）不显示</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>#2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndTimeDate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>action:Say(12,"动态礼包")</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>action:Mail(12)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>action:TrigerTask(13)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;(VIP_LEVEL&lt;Description || testdate ==dateTest)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;VIP_LEVEL&gt;EndTimeDate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;(VIP_LEVEL&lt;(Description + startTimeDate) || testdate ==datetest) &amp;&amp; (pow(doubleTest , double2test) &gt; double3test)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsShowInterface</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardIcon</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;VIP_LEVEL&gt;EndTimeDate || TEST_MULIT_ARGS(IsShowInterface , Description,int64Test,doubleTest,RewardIcon,dateTest)</t>
+[begin,end,actionConfig]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构体</t>
+  </si>
+  <si>
+    <t>TestStruct
+[test1 , test2 , test3 , test4 , test6,test7]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>True , 123,123.2,1231,asdf,2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>True , 123,123.2,1232,asdf,2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>True , 123,123.2,1233,asdf,2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool,long,float,int,string,ActionConfig</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构体数组</t>
+  </si>
+  <si>
+    <t>[bool,long,float,int,string,ActionConfig]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestStructArray[test1 , test2 , test3 , test4 , test5,test6]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,1zxcv,1][0 , 123,123.2,1232,1zxcv,1]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,1zxcv,2][0 , 123,123.2,1232,2zxcv,3]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,1zxcv,4][0 , 123,123.2,1232,3zxcv,11]</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +561,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -601,6 +695,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -861,7 +962,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -986,8 +1087,9 @@
     <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1022,8 +1124,11 @@
     <xf numFmtId="21" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -1049,6 +1154,7 @@
     <cellStyle name="标题 4" xfId="23" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="24" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="好" xfId="25" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="26" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="27" builtinId="22" customBuiltin="1"/>
@@ -1364,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1385,18 +1491,22 @@
     <col min="20" max="20" width="15.875" style="1" customWidth="1"/>
     <col min="21" max="21" width="28.625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.75" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.75" style="1"/>
+    <col min="23" max="24" width="11.75" style="1"/>
+    <col min="25" max="25" width="25.125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="42.875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="25.125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="99.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1450,15 +1560,30 @@
         <v>74</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
@@ -1518,13 +1643,28 @@
         <v>75</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1544,7 +1684,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>19</v>
@@ -1559,7 +1699,7 @@
         <v>22</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>23</v>
@@ -1568,31 +1708,46 @@
         <v>24</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="S3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>111</v>
+      <c r="Z3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1642,13 +1797,13 @@
         <v>31</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>72</v>
@@ -1659,8 +1814,23 @@
       <c r="V4" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="W4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1710,27 +1880,42 @@
         <v>28</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="T5" s="11">
         <v>0.83333333333333337</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>95</v>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>34</v>
@@ -1778,25 +1963,40 @@
         <v>28</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>96</v>
+      <c r="W6" s="1">
+        <v>2</v>
+      </c>
+      <c r="X6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1846,25 +2046,40 @@
         <v>28</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
+      </c>
+      <c r="W7" s="1">
+        <v>2</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -1914,22 +2129,28 @@
         <v>28</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
+      </c>
+      <c r="W8" s="1">
+        <v>2</v>
+      </c>
+      <c r="X8" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -1979,22 +2200,28 @@
         <v>28</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
+      </c>
+      <c r="W9" s="1">
+        <v>2</v>
+      </c>
+      <c r="X9" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -2044,18 +2271,24 @@
         <v>28</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="U10" s="1" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
+      </c>
+      <c r="W10" s="1">
+        <v>2</v>
+      </c>
+      <c r="X10" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -2106,13 +2339,19 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="U11" s="1" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
+      </c>
+      <c r="W11" s="1">
+        <v>2</v>
+      </c>
+      <c r="X11" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -2163,13 +2402,19 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="U12" s="1" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+      <c r="W12" s="1">
+        <v>2</v>
+      </c>
+      <c r="X12" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -2220,13 +2465,19 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="U13" s="1" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
+      </c>
+      <c r="W13" s="1">
+        <v>2</v>
+      </c>
+      <c r="X13" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -2253,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>33</v>
@@ -2277,13 +2528,19 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="U14" s="1" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
+      </c>
+      <c r="W14" s="1">
+        <v>2</v>
+      </c>
+      <c r="X14" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -2334,13 +2591,19 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="U15" s="1" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
+      </c>
+      <c r="W15" s="1">
+        <v>2</v>
+      </c>
+      <c r="X15" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -2391,13 +2654,19 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="U16" s="1" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
+      </c>
+      <c r="W16" s="1">
+        <v>2</v>
+      </c>
+      <c r="X16" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -2448,13 +2717,19 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="U17" s="1" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
+      </c>
+      <c r="W17" s="1">
+        <v>2</v>
+      </c>
+      <c r="X17" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -2507,51 +2782,61 @@
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="U18" s="1" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
+      </c>
+      <c r="W18" s="1">
+        <v>2</v>
+      </c>
+      <c r="X18" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
       <c r="F19" s="5" t="s">
         <v>64</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="W1" r:id="rId1"/>
+    <hyperlink ref="X1" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
@@ -1472,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1859,6 +1859,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="7">
+        <f>I5+6</f>
         <v>7</v>
       </c>
       <c r="K5" s="8" t="s">
@@ -1942,6 +1943,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="7">
+        <f t="shared" ref="J6:J18" si="0">I6+6</f>
         <v>7</v>
       </c>
       <c r="K6" s="8" t="s">
@@ -2025,6 +2027,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K7" s="8" t="s">
@@ -2108,6 +2111,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K8" s="8" t="s">
@@ -2179,6 +2183,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K9" s="8" t="s">
@@ -2250,6 +2255,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K10" s="8" t="s">
@@ -2315,6 +2321,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K11" s="8" t="s">
@@ -2378,6 +2385,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K12" s="8" t="s">
@@ -2441,6 +2449,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K13" s="8" t="s">
@@ -2504,6 +2513,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K14" s="8" t="s">
@@ -2567,6 +2577,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K15" s="8" t="s">
@@ -2630,6 +2641,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K16" s="8" t="s">
@@ -2693,6 +2705,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K17" s="8" t="s">
@@ -2758,6 +2771,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K18" s="8" t="s">

--- a/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="146">
   <si>
     <t>活动名称</t>
   </si>
@@ -456,50 +456,8 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>20:0:0,20:0:2,3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:0,0:3,3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,4,3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2016-3-26-20:0:0,2016-3-26-20:0:5,3</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,4</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,5</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,6</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,7</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,8</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,9</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,10</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,11</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,12</t>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,13</t>
   </si>
   <si>
     <t>testDateStruct
@@ -550,7 +508,19 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>[True , 123,123.2,1231,1zxcv,4][0 , 123,123.2,1232,3zxcv,11]</t>
+    <t>20:0:0,21:0:2,3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:0,30:3,3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,34,3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,1zxcv,3][0 , 123,123.2,1232,3zxcv,1]</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1472,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J18"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1575,10 +1545,10 @@
         <v>124</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
@@ -1658,10 +1628,10 @@
         <v>125</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="42.75" x14ac:dyDescent="0.15">
@@ -1726,7 +1696,7 @@
         <v>94</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="V3" s="5" t="s">
         <v>95</v>
@@ -1741,10 +1711,10 @@
         <v>123</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.15">
@@ -1893,7 +1863,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>80</v>
@@ -1908,10 +1878,10 @@
         <v>126</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
@@ -1977,7 +1947,7 @@
         <v>96</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>81</v>
@@ -1992,10 +1962,10 @@
         <v>127</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
@@ -2061,7 +2031,7 @@
         <v>77</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>82</v>
@@ -2076,10 +2046,10 @@
         <v>128</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="71.25" x14ac:dyDescent="0.15">
@@ -2142,7 +2112,7 @@
         <v>106</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>83</v>
@@ -2214,7 +2184,7 @@
         <v>101</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>84</v>
@@ -2282,7 +2252,7 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="U10" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>85</v>
@@ -2346,7 +2316,7 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="U11" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>86</v>
@@ -2410,7 +2380,7 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="U12" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>87</v>
@@ -2474,7 +2444,7 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="U13" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>88</v>
@@ -2538,7 +2508,7 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="U14" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>89</v>
@@ -2602,7 +2572,7 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="U15" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>90</v>
@@ -2666,7 +2636,7 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="U16" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>91</v>
@@ -2730,7 +2700,7 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="U17" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>92</v>
@@ -2796,7 +2766,7 @@
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="U18" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>93</v>

--- a/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="147">
   <si>
     <t>活动名称</t>
   </si>
@@ -251,23 +251,225 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>0,</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:2</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:3</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:4</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:5</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:6</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:7</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:8</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:9</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:10</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:11</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:12</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:13</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:14</t>
+  </si>
+  <si>
+    <t>26-20:0:0,26-20:0:15</t>
+  </si>
+  <si>
+    <t>0:00</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动id</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>#显示等级下限,不到等级（不包括自身）不显示</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndTimeDate</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>action:Say(12,"动态礼包")</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>action:Mail(12)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>action:TrigerTask(13)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;(VIP_LEVEL&lt;Description || testdate ==dateTest)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;VIP_LEVEL&gt;EndTimeDate</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;(VIP_LEVEL&lt;(Description + startTimeDate) || testdate ==datetest) &amp;&amp; (pow(doubleTest , double2test) &gt; double3test)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsShowInterface</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardIcon</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;VIP_LEVEL&gt;EndTimeDate || TEST_MULIT_ARGS(IsShowInterface , Description,int64Test,doubleTest,RewardIcon,dateTest)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateTest=1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>date2Test=2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>date3Test=3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>True , 123,123.2,1231,asdf,2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>True , 123,123.2,1232,asdf,2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>True , 123,123.2,1233,asdf,2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,1zxcv,1][0 , 123,123.2,1232,1zxcv,1]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,1zxcv,2][0 , 123,123.2,1232,2zxcv,3]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:0:0,21:0:2,3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:0,30:3,3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,34,3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,1zxcv,3][0 , 123,123.2,1232,3zxcv,1]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>测试时间</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>测试时间结构体.比如说活动开启结束时间</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试时间数组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套表使用</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>config公用值</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构体数组</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>date</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>测试时间结构体.比如说活动开启结束时间</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试时间数组</t>
+    <t>date,date,ActionConfig</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -275,188 +477,19 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>26-20:0:0,26-20:0:2</t>
-  </si>
-  <si>
-    <t>26-20:0:0,26-20:0:3</t>
-  </si>
-  <si>
-    <t>26-20:0:0,26-20:0:4</t>
-  </si>
-  <si>
-    <t>26-20:0:0,26-20:0:5</t>
-  </si>
-  <si>
-    <t>26-20:0:0,26-20:0:6</t>
-  </si>
-  <si>
-    <t>26-20:0:0,26-20:0:7</t>
-  </si>
-  <si>
-    <t>26-20:0:0,26-20:0:8</t>
-  </si>
-  <si>
-    <t>26-20:0:0,26-20:0:9</t>
-  </si>
-  <si>
-    <t>26-20:0:0,26-20:0:10</t>
-  </si>
-  <si>
-    <t>26-20:0:0,26-20:0:11</t>
-  </si>
-  <si>
-    <t>26-20:0:0,26-20:0:12</t>
-  </si>
-  <si>
-    <t>26-20:0:0,26-20:0:13</t>
-  </si>
-  <si>
-    <t>26-20:0:0,26-20:0:14</t>
-  </si>
-  <si>
-    <t>26-20:0:0,26-20:0:15</t>
+    <t>ActionConfig</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>map&lt;string , ActionConfig&gt;</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>[bool,long,float,int,string,ActionConfig]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>testdate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateArray</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:00</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动id</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>#显示等级下限,不到等级（不包括自身）不显示</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>#2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndTimeDate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>action:Say(12,"动态礼包")</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>action:Mail(12)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>action:TrigerTask(13)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;(VIP_LEVEL&lt;Description || testdate ==dateTest)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;VIP_LEVEL&gt;EndTimeDate</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;(VIP_LEVEL&lt;(Description + startTimeDate) || testdate ==datetest) &amp;&amp; (pow(doubleTest , double2test) &gt; double3test)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsShowInterface</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>RewardIcon</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition:PLAYER_LEVEL&gt;ActivityLevelHigh&amp;&amp;VIP_LEVEL&gt;EndTimeDate || TEST_MULIT_ARGS(IsShowInterface , Description,int64Test,doubleTest,RewardIcon,dateTest)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套表使用</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionConfig</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>testConfig</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>testConfig2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>date,date,ActionConfig</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateCommon</t>
-  </si>
-  <si>
-    <t>config公用值</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>map&lt;string , ActionConfig&gt;</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateTest=1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>date2Test=2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>date3Test=3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-3-26-20:0:0,2016-3-26-20:0:5,3</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -465,62 +498,36 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>dateArray</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>testConfig</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>testConfig2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateCommon</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestStructArray[test1 , test2 , test3 , test4 , test5,test6]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>结构体</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool,long,float,int,string,ActionConfig</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>TestStruct
 [test1 , test2 , test3 , test4 , test6,test7]</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>True , 123,123.2,1231,asdf,2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>True , 123,123.2,1232,asdf,2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>True , 123,123.2,1233,asdf,2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool,long,float,int,string,ActionConfig</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构体数组</t>
-  </si>
-  <si>
-    <t>[bool,long,float,int,string,ActionConfig]</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestStructArray[test1 , test2 , test3 , test4 , test5,test6]</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>[True , 123,123.2,1231,1zxcv,1][0 , 123,123.2,1232,1zxcv,1]</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>[True , 123,123.2,1231,1zxcv,2][0 , 123,123.2,1232,2zxcv,3]</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>20:0:0,21:0:2,3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:0,30:3,3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,34,3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>[True , 123,123.2,1231,1zxcv,3][0 , 123,123.2,1232,3zxcv,1]</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1094,8 +1101,8 @@
     <xf numFmtId="21" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1440,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1470,13 +1477,13 @@
   <sheetData>
     <row r="1" spans="1:27" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1526,34 +1533,34 @@
       <c r="S1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>78</v>
+      <c r="T1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
@@ -1609,29 +1616,29 @@
       <c r="S2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="T2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>136</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="42.75" x14ac:dyDescent="0.15">
@@ -1654,7 +1661,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>19</v>
@@ -1669,7 +1676,7 @@
         <v>22</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>23</v>
@@ -1678,218 +1685,217 @@
         <v>24</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="Q3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>132</v>
+      <c r="X5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>100</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <f>I5+6</f>
-        <v>7</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="5">
-        <v>10001</v>
-      </c>
-      <c r="P5" s="5">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="T5" s="11">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="W5" s="1">
-        <v>1</v>
-      </c>
-      <c r="X5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1901,19 +1907,19 @@
         <v>50</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" ref="J6:J18" si="0">I6+6</f>
+        <f>I6+6</f>
         <v>7</v>
       </c>
       <c r="K6" s="8" t="s">
@@ -1929,7 +1935,7 @@
         <v>39</v>
       </c>
       <c r="O6" s="5">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="P6" s="5">
         <v>28</v>
@@ -1938,42 +1944,42 @@
         <v>104</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="T6" s="11">
+        <v>0.83333333333333337</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>3</v>
+      <c r="A7" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1985,19 +1991,19 @@
         <v>50</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J7:J19" si="0">I7+6</f>
         <v>7</v>
       </c>
       <c r="K7" s="8" t="s">
@@ -2013,28 +2019,28 @@
         <v>39</v>
       </c>
       <c r="O7" s="5">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="P7" s="5">
         <v>28</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="W7" s="1">
         <v>2</v>
@@ -2043,21 +2049,21 @@
         <v>2</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -2069,13 +2075,13 @@
         <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
@@ -2097,25 +2103,28 @@
         <v>39</v>
       </c>
       <c r="O8" s="5">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="P8" s="5">
         <v>28</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>106</v>
+        <v>96</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="W8" s="1">
         <v>2</v>
@@ -2123,13 +2132,22 @@
       <c r="X8" s="1">
         <v>2</v>
       </c>
+      <c r="Y8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -2141,13 +2159,13 @@
         <v>50</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -2169,25 +2187,25 @@
         <v>39</v>
       </c>
       <c r="O9" s="5">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="P9" s="5">
         <v>28</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="W9" s="1">
         <v>2</v>
@@ -2198,10 +2216,10 @@
     </row>
     <row r="10" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -2213,13 +2231,13 @@
         <v>50</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -2241,21 +2259,25 @@
         <v>39</v>
       </c>
       <c r="O10" s="5">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="P10" s="5">
         <v>28</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="U10" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="W10" s="1">
         <v>2</v>
@@ -2264,12 +2286,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -2281,12 +2303,14 @@
         <v>50</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="I11" s="7">
         <v>1</v>
       </c>
@@ -2307,19 +2331,21 @@
         <v>39</v>
       </c>
       <c r="O11" s="5">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="P11" s="5">
         <v>28</v>
       </c>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="U11" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="W11" s="1">
         <v>2</v>
@@ -2330,10 +2356,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -2345,7 +2371,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>50</v>
@@ -2371,7 +2397,7 @@
         <v>39</v>
       </c>
       <c r="O12" s="5">
-        <v>1002</v>
+        <v>10007</v>
       </c>
       <c r="P12" s="5">
         <v>28</v>
@@ -2380,10 +2406,10 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="U12" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="W12" s="1">
         <v>2</v>
@@ -2394,10 +2420,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -2409,7 +2435,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>50</v>
@@ -2435,7 +2461,7 @@
         <v>39</v>
       </c>
       <c r="O13" s="5">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="P13" s="5">
         <v>28</v>
@@ -2444,10 +2470,10 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="U13" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="W13" s="1">
         <v>2</v>
@@ -2458,10 +2484,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -2473,7 +2499,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>50</v>
@@ -2499,7 +2525,7 @@
         <v>39</v>
       </c>
       <c r="O14" s="5">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="P14" s="5">
         <v>28</v>
@@ -2508,10 +2534,10 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="U14" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="W14" s="1">
         <v>2</v>
@@ -2522,10 +2548,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -2537,7 +2563,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>50</v>
@@ -2563,7 +2589,7 @@
         <v>39</v>
       </c>
       <c r="O15" s="5">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="P15" s="5">
         <v>28</v>
@@ -2572,10 +2598,10 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="U15" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="W15" s="1">
         <v>2</v>
@@ -2586,10 +2612,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -2601,7 +2627,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>50</v>
@@ -2627,7 +2653,7 @@
         <v>39</v>
       </c>
       <c r="O16" s="5">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="P16" s="5">
         <v>28</v>
@@ -2636,10 +2662,10 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="U16" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="W16" s="1">
         <v>2</v>
@@ -2650,10 +2676,10 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -2665,7 +2691,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>50</v>
@@ -2691,7 +2717,7 @@
         <v>39</v>
       </c>
       <c r="O17" s="5">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="P17" s="5">
         <v>28</v>
@@ -2700,10 +2726,10 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="U17" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="W17" s="1">
         <v>2</v>
@@ -2714,10 +2740,10 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -2729,14 +2755,12 @@
         <v>50</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="7">
         <v>1</v>
       </c>
@@ -2757,7 +2781,7 @@
         <v>39</v>
       </c>
       <c r="O18" s="5">
-        <v>10008</v>
+        <v>1007</v>
       </c>
       <c r="P18" s="5">
         <v>28</v>
@@ -2766,10 +2790,10 @@
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="U18" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="W18" s="1">
         <v>2</v>
@@ -2779,13 +2803,75 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>100</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="5">
+        <v>10008</v>
+      </c>
+      <c r="P19" s="5">
+        <v>28</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="U19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W19" s="1">
+        <v>2</v>
+      </c>
+      <c r="X19" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="F20" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
@@ -2812,6 +2898,10 @@
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>

--- a/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="151">
   <si>
     <t>活动名称</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>ActivityName</t>
-  </si>
-  <si>
-    <t>ActivityLevelLow</t>
   </si>
   <si>
     <t>IsShowEntrance</t>
@@ -305,10 +302,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>#显示等级下限,不到等级（不包括自身）不显示</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>#2</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -528,6 +521,34 @@
   <si>
     <t>TestStruct
 [test1 , test2 , test3 , test4 , test6,test7]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityLevelLow</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示等级下限,不到等级（不包括自身）不显示</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>action:Mail(12)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:ActivityLevelLow&gt;IntTest
+action:ChangeValue(12)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:ActivityLevelLow&gt;Int2Test
+action:AddValue(12)
+condition:ActivityLevelLow&lt;Int3Test
+action:MinValue(12)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +559,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -680,6 +701,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1066,7 +1095,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1102,6 +1131,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1449,13 +1481,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="11.75" style="1" customWidth="1"/>
+    <col min="1" max="2" width="11.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
@@ -1477,13 +1511,13 @@
   <sheetData>
     <row r="1" spans="1:27" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1525,120 +1559,120 @@
         <v>13</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Z1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="X1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="AA1" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="AA2" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="42.75" x14ac:dyDescent="0.15">
@@ -1649,245 +1683,245 @@
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="Q3" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="R3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="AA3" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="J5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="Q5" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1895,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1904,16 +1938,16 @@
         <v>100</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
@@ -1923,16 +1957,16 @@
         <v>7</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O6" s="5">
         <v>10001</v>
@@ -1941,22 +1975,22 @@
         <v>28</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T6" s="11">
         <v>0.83333333333333337</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W6" s="1">
         <v>1</v>
@@ -1965,21 +1999,21 @@
         <v>1</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -1988,16 +2022,16 @@
         <v>100</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -2007,16 +2041,16 @@
         <v>7</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O7" s="5">
         <v>10002</v>
@@ -2025,22 +2059,22 @@
         <v>28</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W7" s="1">
         <v>2</v>
@@ -2049,13 +2083,13 @@
         <v>2</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
@@ -2063,7 +2097,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -2072,16 +2106,16 @@
         <v>100</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
@@ -2091,16 +2125,16 @@
         <v>7</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O8" s="5">
         <v>10003</v>
@@ -2109,22 +2143,22 @@
         <v>28</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W8" s="1">
         <v>2</v>
@@ -2133,13 +2167,13 @@
         <v>2</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="71.25" x14ac:dyDescent="0.15">
@@ -2147,7 +2181,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -2156,16 +2190,16 @@
         <v>100</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -2175,16 +2209,16 @@
         <v>7</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O9" s="5">
         <v>10004</v>
@@ -2193,19 +2227,19 @@
         <v>28</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W9" s="1">
         <v>2</v>
@@ -2219,7 +2253,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -2228,16 +2262,16 @@
         <v>100</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -2247,16 +2281,16 @@
         <v>7</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O10" s="5">
         <v>10005</v>
@@ -2265,19 +2299,19 @@
         <v>28</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W10" s="1">
         <v>2</v>
@@ -2291,7 +2325,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -2300,16 +2334,16 @@
         <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
@@ -2319,16 +2353,16 @@
         <v>7</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O11" s="5">
         <v>10006</v>
@@ -2337,15 +2371,15 @@
         <v>28</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="U11" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W11" s="1">
         <v>2</v>
@@ -2359,7 +2393,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -2368,13 +2402,13 @@
         <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="7">
@@ -2385,16 +2419,16 @@
         <v>7</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O12" s="5">
         <v>10007</v>
@@ -2406,10 +2440,10 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="U12" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W12" s="1">
         <v>2</v>
@@ -2423,7 +2457,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -2432,13 +2466,13 @@
         <v>100</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="7">
@@ -2449,16 +2483,16 @@
         <v>7</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="5">
         <v>1002</v>
@@ -2470,10 +2504,10 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="U13" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W13" s="1">
         <v>2</v>
@@ -2487,7 +2521,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -2496,13 +2530,13 @@
         <v>100</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="7">
@@ -2513,16 +2547,16 @@
         <v>7</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="5">
         <v>1003</v>
@@ -2534,10 +2568,10 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="U14" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W14" s="1">
         <v>2</v>
@@ -2551,7 +2585,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -2560,13 +2594,13 @@
         <v>100</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="7">
@@ -2577,16 +2611,16 @@
         <v>7</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O15" s="5">
         <v>1004</v>
@@ -2598,10 +2632,10 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="U15" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W15" s="1">
         <v>2</v>
@@ -2615,7 +2649,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -2624,13 +2658,13 @@
         <v>100</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="7">
@@ -2641,16 +2675,16 @@
         <v>7</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O16" s="5">
         <v>1005</v>
@@ -2662,10 +2696,10 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="U16" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W16" s="1">
         <v>2</v>
@@ -2679,7 +2713,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -2688,13 +2722,13 @@
         <v>100</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="7">
@@ -2705,16 +2739,16 @@
         <v>7</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O17" s="5">
         <v>1006</v>
@@ -2726,10 +2760,10 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="U17" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W17" s="1">
         <v>2</v>
@@ -2743,7 +2777,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -2752,13 +2786,13 @@
         <v>100</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="7">
@@ -2769,16 +2803,16 @@
         <v>7</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O18" s="5">
         <v>1007</v>
@@ -2790,10 +2824,10 @@
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="U18" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W18" s="1">
         <v>2</v>
@@ -2807,7 +2841,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -2816,16 +2850,16 @@
         <v>100</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" s="7">
         <v>1</v>
@@ -2835,16 +2869,16 @@
         <v>7</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O19" s="5">
         <v>10008</v>
@@ -2856,10 +2890,10 @@
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="U19" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W19" s="1">
         <v>2</v>
@@ -2870,7 +2904,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="F20" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>

--- a/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="152">
   <si>
     <t>活动名称</t>
   </si>
@@ -229,10 +229,6 @@
   </si>
   <si>
     <t>condition</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActivityLevelHigh</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -536,19 +532,27 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>s</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityLevelHigh</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:ActivityLevelLow&gt;Int2Test
+action:AddValue(ActivityLevelHigh , 12)
+condition:ActivityLevelLow&lt;Int3Test
+action:MinValue(ActivityLevelHigh , 12)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>condition:ActivityLevelLow&gt;IntTest
-action:ChangeValue(12)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition:ActivityLevelLow&gt;Int2Test
-action:AddValue(12)
-condition:ActivityLevelLow&lt;Int3Test
-action:MinValue(12)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
+action:ChangeValue(ActivityLevelHigh , 12)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1482,7 +1486,7 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1511,13 +1515,13 @@
   <sheetData>
     <row r="1" spans="1:27" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1559,42 +1563,42 @@
         <v>13</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="X1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="AA1" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>25</v>
@@ -1651,28 +1655,28 @@
         <v>69</v>
       </c>
       <c r="T2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="AA2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="42.75" x14ac:dyDescent="0.15">
@@ -1683,10 +1687,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
@@ -1695,7 +1699,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>18</v>
@@ -1710,7 +1714,7 @@
         <v>21</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>22</v>
@@ -1719,126 +1723,124 @@
         <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="Q3" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="AA3" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
@@ -1852,7 +1854,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>30</v>
@@ -1891,28 +1893,28 @@
         <v>30</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>28</v>
@@ -1975,22 +1977,22 @@
         <v>28</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T6" s="11">
         <v>0.83333333333333337</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W6" s="1">
         <v>1</v>
@@ -1999,18 +2001,18 @@
         <v>1</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>33</v>
@@ -2059,22 +2061,22 @@
         <v>28</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W7" s="1">
         <v>2</v>
@@ -2083,13 +2085,13 @@
         <v>2</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
@@ -2143,22 +2145,22 @@
         <v>28</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W8" s="1">
         <v>2</v>
@@ -2167,13 +2169,13 @@
         <v>2</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="71.25" x14ac:dyDescent="0.15">
@@ -2227,19 +2229,19 @@
         <v>28</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W9" s="1">
         <v>2</v>
@@ -2299,19 +2301,19 @@
         <v>28</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W10" s="1">
         <v>2</v>
@@ -2371,15 +2373,15 @@
         <v>28</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="U11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W11" s="1">
         <v>2</v>
@@ -2440,10 +2442,10 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="U12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W12" s="1">
         <v>2</v>
@@ -2504,10 +2506,10 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="U13" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W13" s="1">
         <v>2</v>
@@ -2568,10 +2570,10 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="U14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W14" s="1">
         <v>2</v>
@@ -2632,10 +2634,10 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="U15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W15" s="1">
         <v>2</v>
@@ -2696,10 +2698,10 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="U16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W16" s="1">
         <v>2</v>
@@ -2760,10 +2762,10 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="U17" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W17" s="1">
         <v>2</v>
@@ -2824,10 +2826,10 @@
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="U18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W18" s="1">
         <v>2</v>
@@ -2890,10 +2892,10 @@
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="U19" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W19" s="1">
         <v>2</v>

--- a/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="153">
   <si>
     <t>活动名称</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>ActivityId</t>
-  </si>
-  <si>
-    <t>ActivityName</t>
   </si>
   <si>
     <t>IsShowEntrance</t>
@@ -553,6 +550,15 @@
   </si>
   <si>
     <t>NULL</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityName</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition:ActivityLevelLow&gt;IntTest
+action:ChangeValue(ActivityName , "测试名字")</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1486,12 +1492,13 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="11.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
@@ -1515,13 +1522,13 @@
   <sheetData>
     <row r="1" spans="1:27" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1563,120 +1570,120 @@
         <v>13</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="X1" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="AA1" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="O2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="AA2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="42.75" x14ac:dyDescent="0.15">
@@ -1684,246 +1691,246 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="Q3" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="Z3" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="AA3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="J5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1931,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1940,16 +1947,16 @@
         <v>100</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
@@ -1959,16 +1966,16 @@
         <v>7</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O6" s="5">
         <v>10001</v>
@@ -1977,22 +1984,22 @@
         <v>28</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T6" s="11">
         <v>0.83333333333333337</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W6" s="1">
         <v>1</v>
@@ -2001,21 +2008,21 @@
         <v>1</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -2024,16 +2031,16 @@
         <v>100</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -2043,16 +2050,16 @@
         <v>7</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O7" s="5">
         <v>10002</v>
@@ -2061,22 +2068,22 @@
         <v>28</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W7" s="1">
         <v>2</v>
@@ -2085,13 +2092,13 @@
         <v>2</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
@@ -2099,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -2108,16 +2115,16 @@
         <v>100</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
@@ -2127,16 +2134,16 @@
         <v>7</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O8" s="5">
         <v>10003</v>
@@ -2145,22 +2152,22 @@
         <v>28</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W8" s="1">
         <v>2</v>
@@ -2169,13 +2176,13 @@
         <v>2</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="71.25" x14ac:dyDescent="0.15">
@@ -2183,7 +2190,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -2192,16 +2199,16 @@
         <v>100</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -2211,16 +2218,16 @@
         <v>7</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O9" s="5">
         <v>10004</v>
@@ -2229,19 +2236,19 @@
         <v>28</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W9" s="1">
         <v>2</v>
@@ -2255,7 +2262,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -2264,16 +2271,16 @@
         <v>100</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -2283,16 +2290,16 @@
         <v>7</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O10" s="5">
         <v>10005</v>
@@ -2301,19 +2308,19 @@
         <v>28</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W10" s="1">
         <v>2</v>
@@ -2327,7 +2334,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -2336,16 +2343,16 @@
         <v>100</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
@@ -2355,16 +2362,16 @@
         <v>7</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O11" s="5">
         <v>10006</v>
@@ -2373,15 +2380,15 @@
         <v>28</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="U11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W11" s="1">
         <v>2</v>
@@ -2395,7 +2402,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -2404,13 +2411,13 @@
         <v>100</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="7">
@@ -2421,16 +2428,16 @@
         <v>7</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="5">
         <v>10007</v>
@@ -2442,10 +2449,10 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="U12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W12" s="1">
         <v>2</v>
@@ -2459,7 +2466,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -2468,13 +2475,13 @@
         <v>100</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="7">
@@ -2485,16 +2492,16 @@
         <v>7</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="5">
         <v>1002</v>
@@ -2506,10 +2513,10 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="U13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W13" s="1">
         <v>2</v>
@@ -2523,7 +2530,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -2532,13 +2539,13 @@
         <v>100</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="7">
@@ -2549,16 +2556,16 @@
         <v>7</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" s="5">
         <v>1003</v>
@@ -2570,10 +2577,10 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="U14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W14" s="1">
         <v>2</v>
@@ -2587,7 +2594,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
@@ -2596,13 +2603,13 @@
         <v>100</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="7">
@@ -2613,16 +2620,16 @@
         <v>7</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O15" s="5">
         <v>1004</v>
@@ -2634,10 +2641,10 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="U15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W15" s="1">
         <v>2</v>
@@ -2651,7 +2658,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -2660,13 +2667,13 @@
         <v>100</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="7">
@@ -2677,16 +2684,16 @@
         <v>7</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O16" s="5">
         <v>1005</v>
@@ -2698,10 +2705,10 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="U16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W16" s="1">
         <v>2</v>
@@ -2715,7 +2722,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -2724,13 +2731,13 @@
         <v>100</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="7">
@@ -2741,16 +2748,16 @@
         <v>7</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O17" s="5">
         <v>1006</v>
@@ -2762,10 +2769,10 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="U17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W17" s="1">
         <v>2</v>
@@ -2779,7 +2786,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
@@ -2788,13 +2795,13 @@
         <v>100</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="7">
@@ -2805,16 +2812,16 @@
         <v>7</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O18" s="5">
         <v>1007</v>
@@ -2826,10 +2833,10 @@
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="U18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W18" s="1">
         <v>2</v>
@@ -2843,7 +2850,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -2852,16 +2859,16 @@
         <v>100</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" s="7">
         <v>1</v>
@@ -2871,16 +2878,16 @@
         <v>7</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O19" s="5">
         <v>10008</v>
@@ -2892,10 +2899,10 @@
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="U19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W19" s="1">
         <v>2</v>
@@ -2906,7 +2913,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="F20" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>

--- a/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/ActivityConfig.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -403,10 +403,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>[True , 123,123.2,1231,1zxcv,2][0 , 123,123.2,1232,2zxcv,3]</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>20:0:0,21:0:2,3</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -416,10 +412,6 @@
   </si>
   <si>
     <t>10,34,3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>[True , 123,123.2,1231,1zxcv,3][0 , 123,123.2,1232,3zxcv,1]</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -559,6 +551,14 @@
   <si>
     <t>condition:ActivityLevelLow&gt;IntTest
 action:ChangeValue(ActivityName , "测试名字")</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,2zxcv,2][0 , 123,123.2,1232,2zxcv,3]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>[True , 123,123.2,1231,3zxcv,3][0 , 123,123.2,1232,3zxcv,1]</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1491,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="U4" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1579,28 +1579,28 @@
         <v>70</v>
       </c>
       <c r="T1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Z1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="X1" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="AA1" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="28.5" x14ac:dyDescent="0.15">
@@ -1662,28 +1662,28 @@
         <v>68</v>
       </c>
       <c r="T2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="AA2" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="42.75" x14ac:dyDescent="0.15">
@@ -1691,13 +1691,13 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -1745,109 +1745,109 @@
         <v>96</v>
       </c>
       <c r="T3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="AA3" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.15">
@@ -1861,7 +1861,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>29</v>
@@ -1996,7 +1996,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>72</v>
@@ -2080,7 +2080,7 @@
         <v>86</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>73</v>
@@ -2095,7 +2095,7 @@
         <v>108</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>112</v>
@@ -2155,7 +2155,7 @@
         <v>92</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>92</v>
@@ -2164,7 +2164,7 @@
         <v>71</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>74</v>
@@ -2179,7 +2179,7 @@
         <v>109</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="AA8" s="1" t="s">
         <v>113</v>
